--- a/trend_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
+++ b/trend_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.272915911704666</v>
+        <v>0.727084088295334</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.213496469739052</v>
+        <v>0.786503530260948</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.489444099777128</v>
+        <v>0.510555900222872</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2812,6 +2812,1094 @@
         </is>
       </c>
       <c r="W26" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.307669866934593</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0661157024793388</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.677685950413223</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.0150154162384378</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.0650917191737994</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0363360565052227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.750770811921892</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.159959593978546</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.837349397590361</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0115896540325396</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0309636594310587</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0066582886911736</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.115896540325396</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.734288099722728</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.160714285714286</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0001991548527808</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.665069727625089</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0059523809523809</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>180</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-1.10900383327203</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-4.62880284675068</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.73426366733402</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.6161132407066811</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.954230595839074</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.889570552147239</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.141104294478528</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.769843514938361</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.243243243243243</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0945945945945946</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-6.256423432682429e-05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8470347911969009</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.01035</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0112794718695501</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0243182145892615</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0045803990187619</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.11639252432822</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.996646160988975</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.55421686746988</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.495</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0142629352424341</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0059406943303956</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0223033819912731</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.190299336123204</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.973758652077943</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0153957631393047</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0267795481600106</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.00358758463119</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.50643474944273</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.996828119057987</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0200686813186813</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0316738931994523</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0085318385937612</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.75272325927348</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.975549413792945</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.267857142857143</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0002239423666462</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0004097793567688</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.973662463679259</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.73246097216116</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.862275449101796</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0085019397535372</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0405688554492235</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0141730235429192</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.566795983569147</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
+++ b/trend_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.441232841643137</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.879310344827586</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.065</v>
+        <v>10.03</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0033024412296566</v>
+        <v>-0.0057990235946602</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06319687592415529</v>
+        <v>-0.0429257841187048</v>
       </c>
       <c r="M2" t="n">
-        <v>0.042515003748732</v>
+        <v>0.0410538352111991</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.032811139887299</v>
+        <v>-0.0578167855898328</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,28 +664,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5983391454879941</v>
+        <v>0.406848444030283</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.344827586206897</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0009207983193277</v>
+        <v>-0.0005929383116882999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0006093951133678001</v>
+        <v>0.0007488740600809</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.727032857346091</v>
+        <v>0.979965847256593</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H4" t="n">
-        <v>0.844827586206897</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="K4" t="n">
-        <v>-9.6378552097429</v>
+        <v>-23.4976348155156</v>
       </c>
       <c r="L4" t="n">
-        <v>-39.3381421438072</v>
+        <v>-49.2080353399124</v>
       </c>
       <c r="M4" t="n">
-        <v>13.3008023433234</v>
+        <v>-4.830799070191</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.5073458341388</v>
+        <v>-18.6489165202505</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.707771516203799</v>
+        <v>0.7715159752032</v>
       </c>
       <c r="G5" t="n">
         <v>0.9090909090909089</v>
       </c>
       <c r="H5" t="n">
-        <v>0.163636363636364</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0.005</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.927440637903031</v>
+        <v>0.999855512854234</v>
       </c>
       <c r="G6" t="n">
-        <v>0.241379310344828</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="H6" t="n">
-        <v>0.155172413793103</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0004617572692793</v>
+        <v>-0.0008027472527472</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-25.0858516483516</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.103812346001419</v>
+        <v>0.0007621892914482</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9835</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0385737004235657</v>
+        <v>0.117583736954249</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0103967638173349</v>
+        <v>0.039128568267525</v>
       </c>
       <c r="M7" t="n">
-        <v>0.102228758478331</v>
+        <v>0.170023160147528</v>
       </c>
       <c r="N7" t="n">
-        <v>3.92208443554303</v>
+        <v>11.7760377520529</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.727084088295334</v>
+        <v>0.328904668443325</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.706896551724138</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.52</v>
+        <v>7.53</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0122293526785712</v>
+        <v>-0.008865291262135699</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0200686813186818</v>
+        <v>-0.0466263605347442</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0447384654187426</v>
+        <v>0.0265373223034525</v>
       </c>
       <c r="N8" t="n">
-        <v>0.16262437072568</v>
+        <v>-0.11773295168839</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0806521132417552</v>
+        <v>0.0007621892914482</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.99</v>
+        <v>1.0055</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0390992185880158</v>
+        <v>0.115937937486132</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0114529995627218</v>
+        <v>0.0386500147651978</v>
       </c>
       <c r="M9" t="n">
-        <v>0.105564026281198</v>
+        <v>0.167867067004718</v>
       </c>
       <c r="N9" t="n">
-        <v>3.94941601899149</v>
+        <v>11.5303766768903</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,46 +1282,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.744726801510599</v>
+        <v>0.0007621892914482</v>
       </c>
       <c r="G10" t="n">
-        <v>0.258620689655172</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.310344827586207</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.065</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.124710340094565</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.417983385126501</v>
+        <v>0.046744367279224</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.188546036686023</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>11.7098910886915</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0806521132417552</v>
+        <v>0.401761076674001</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.862068965517241</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>0.0215</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0607962992889464</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0123759802385098</v>
+        <v>-0.0007311521420853</v>
       </c>
       <c r="M11" t="n">
-        <v>0.114047966470956</v>
+        <v>0.001180102534909</v>
       </c>
       <c r="N11" t="n">
-        <v>5.68189712980807</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.545478553385921</v>
+        <v>0.0449824875182887</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.482758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.022</v>
+        <v>1.48</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.113373436333084</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0012830796252927</v>
+        <v>0.0013286306643051</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0011448103305767</v>
+        <v>0.27562146521462</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.660367319803</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7697159324539889</v>
+        <v>0.0005461708781620001</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0441176470588235</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.852941176470588</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.07211672473867591</v>
+        <v>-0.194320197044335</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.314778940357855</v>
+        <v>-0.300656375170539</v>
       </c>
       <c r="M13" t="n">
-        <v>0.114073496594657</v>
+        <v>-0.08094204560694269</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.87275167153216</v>
+        <v>-10.2273787918071</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.00028131420995</v>
+        <v>0.964210422022144</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0506329113924051</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.860759493670886</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.202016557852311</v>
+        <v>0.0197523371660578</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.30471360546459</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.07994468885614441</v>
+        <v>0.0402087210156314</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.1008278926156</v>
+        <v>0.198515951417666</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.786503530260948</v>
+        <v>0.645710601666273</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H15" t="n">
-        <v>0.847457627118644</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>9.960000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0106167925753242</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0121294305917625</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0300082962176448</v>
+        <v>0.0002005371411115</v>
       </c>
       <c r="N15" t="n">
-        <v>0.106594302965102</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.114550942032529</v>
+        <v>0.997071414817896</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H16" t="n">
-        <v>0.211864406779661</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.016</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001667047010497</v>
+        <v>-9.63151429003095</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-13.9688723773279</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0004999325574363001</v>
+        <v>-4.45834377067141</v>
       </c>
       <c r="N16" t="n">
-        <v>1.04190438156093</v>
+        <v>-6.01969643126934</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.872641044968446</v>
+        <v>0.100498726444473</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.947826086956522</v>
       </c>
       <c r="H17" t="n">
-        <v>0.703389830508475</v>
+        <v>0.0956521739130435</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>183</v>
+        <v>0.005</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.6333430913349</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-10.0400633003262</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.83614768925583</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.53188147067481</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.215790252644409</v>
+        <v>0.9999883511448741</v>
       </c>
       <c r="G18" t="n">
-        <v>0.947826086956522</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0956521739130435</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.0002449698189134</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-0.0003515463747084</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-0.0001329097935374</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-8.165660630449359</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.997985354228504</v>
+        <v>0.624461903019073</v>
       </c>
       <c r="G19" t="n">
-        <v>0.161016949152542</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.101694915254237</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.004</v>
+        <v>1.025</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001716400375939</v>
+        <v>-0.003904032708974</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002866954474097</v>
+        <v>-0.02445049400736</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.021762506245465</v>
       </c>
       <c r="N19" t="n">
-        <v>-4.29100093984962</v>
+        <v>-0.380881239899903</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.406005547817816</v>
+        <v>0.852453618422372</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.949152542372881</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01035</v>
+        <v>7.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0023210906387549</v>
+        <v>0.0068958464443046</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0183648100140344</v>
+        <v>-0.0037666924894564</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0249079512695672</v>
+        <v>0.0185463057858144</v>
       </c>
       <c r="N20" t="n">
-        <v>0.229731344460333</v>
+        <v>0.0919446192573953</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,11 +2269,7 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2290,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.510555900222872</v>
+        <v>0.552522460519809</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.550847457627119</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.51</v>
+        <v>1.036</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0024661806552932</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0100343406593407</v>
+        <v>-0.0254770897579687</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0150072025207232</v>
+        <v>0.0219690758412199</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.238048325800503</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,7 +2356,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.346011645750803</v>
+        <v>0.848806361196585</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.974576271186441</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.022</v>
+        <v>1.145</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003552367513763</v>
+        <v>-0.0124531906063861</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0182954160363734</v>
+        <v>-0.0324555707450444</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0263396844496025</v>
+        <v>0.0076525933051709</v>
       </c>
       <c r="N22" t="n">
-        <v>0.34758977629775</v>
+        <v>-1.08761490012106</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2461,46 +2461,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.698133731843923</v>
+        <v>0.966378072420111</v>
       </c>
       <c r="G23" t="n">
-        <v>0.152542372881356</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.245762711864407</v>
+        <v>0.296610169491525</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0.0225</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0715202815866659</v>
+        <v>-0.0006313359559938</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.47710039429785</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.728337907575906</v>
+        <v>0.416256203527265</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.822033898305085</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.126</v>
+        <v>1.58</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0056549695167845</v>
+        <v>0.0057697458791208</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0250057051574623</v>
+        <v>-0.0453033204469454</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0122987266523128</v>
+        <v>0.0543018266636854</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.502217541455114</v>
+        <v>0.365173789817777</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2643,46 +2643,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.563905510143564</v>
+        <v>0.08041089445470991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="H25" t="n">
-        <v>0.305084745762712</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.022</v>
+        <v>1.99</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.0475002796879428</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0003393163241821</v>
+        <v>-0.100330007791329</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0002790297937356</v>
+        <v>0.00980275946064</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-2.38694872803733</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.157561125454884</v>
+        <v>0.610982829882491</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.898305084745763</v>
+        <v>0.810650887573965</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.47</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0235850557592594</v>
+        <v>0.0024965823650033</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.015774577127809</v>
+        <v>-0.0163479885633979</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0729881053669391</v>
+        <v>0.0157405651672182</v>
       </c>
       <c r="N26" t="n">
-        <v>1.60442556185438</v>
+        <v>0.0250660880020418</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>15</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.521556192605091</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0235294117647059</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.158823529411765</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.307669866934593</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0661157024793388</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.677685950413223</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7</v>
-      </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>0.016</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0150154162384378</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0650917191737994</v>
+        <v>-0.0001245413727831</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0363360565052227</v>
+        <v>0.0001151844843897</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.750770811921892</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.159959593978546</v>
+        <v>0.89308258194887</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0117647058823529</v>
       </c>
       <c r="H28" t="n">
-        <v>0.837349397590361</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0115896540325396</v>
+        <v>-2.66585645338279</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0309636594310587</v>
+        <v>-5.73614103870844</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0066582886911736</v>
+        <v>0.739116471199887</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.115896540325396</v>
+        <v>-1.66616028336425</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,29 +3018,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.734288099722728</v>
+        <v>0.9843559195152169</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.885542168674699</v>
       </c>
       <c r="H29" t="n">
-        <v>0.160714285714286</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0001991548527808</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.665069727625089</v>
+        <v>0.985257078196244</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0059523809523809</v>
+        <v>0.26875</v>
       </c>
       <c r="H30" t="n">
-        <v>0.714285714285714</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>180</v>
+        <v>0.003</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.10900383327203</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.62880284675068</v>
+        <v>-0.0001410231660231</v>
       </c>
       <c r="M30" t="n">
-        <v>2.73426366733402</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.6161132407066811</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.954230595839074</v>
+        <v>0.645381625629282</v>
       </c>
       <c r="G31" t="n">
-        <v>0.889570552147239</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.141104294478528</v>
+        <v>0.91875</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>1.01035</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.0030846897522791</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0166357251156951</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0109931182206095</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.305309026800527</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.769843514938361</v>
+        <v>0.9036590392268929</v>
       </c>
       <c r="G32" t="n">
-        <v>0.243243243243243</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.550295857988166</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003</v>
+        <v>7.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0068468348203075</v>
       </c>
       <c r="L32" t="n">
-        <v>-6.256423432682429e-05</v>
+        <v>-0.0015737805229696</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0155401156987923</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.0912911309374341</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,11 +3357,7 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8470347911969009</v>
+        <v>0.8578383444295981</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.933333333333333</v>
+        <v>0.964705882352941</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01035</v>
+        <v>1.0285</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0112794718695501</v>
+        <v>-0.0100295855933162</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0243182145892615</v>
+        <v>-0.0219757268259355</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0045803990187619</v>
+        <v>0.0026150212955457</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.11639252432822</v>
+        <v>-0.975166319233465</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3450,7 +3446,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3458,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.996646160988975</v>
+        <v>0.974812386321669</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.55421686746988</v>
+        <v>0.747058823529412</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>7.495</v>
+        <v>1.145</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0142629352424341</v>
+        <v>-0.0149846171360499</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0059406943303956</v>
+        <v>-0.026741492770186</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0223033819912731</v>
+        <v>-0.0016784141768729</v>
       </c>
       <c r="N34" t="n">
-        <v>0.190299336123204</v>
+        <v>-1.30870018655458</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3539,7 +3535,11 @@
           <t>Mana_5d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.973758652077943</v>
+        <v>0.975541305616114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.958333333333333</v>
+        <v>0.258823529411765</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.022</v>
+        <v>0.023</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0153957631393047</v>
+        <v>-0.0001816487761594</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0267795481600106</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.00358758463119</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.50643474944273</v>
+        <v>-0.789777287649811</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.996828119057987</v>
+        <v>0.785798673690035</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.75</v>
+        <v>0.870588235294118</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.145</v>
+        <v>1.65</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0200686813186813</v>
+        <v>-0.0107816966004353</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0316738931994523</v>
+        <v>-0.0440556782816162</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0085318385937612</v>
+        <v>0.009759301823957499</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.75272325927348</v>
+        <v>-0.653436157602137</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3718,188 +3718,6 @@
         </is>
       </c>
       <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.975549413792945</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.267857142857143</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.0002239423666462</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.0004097793567688</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-0.973662463679259</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1858500.696</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5538802.192</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Tamaki - Hopelands</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Mana_5d</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.73246097216116</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.862275449101796</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.0085019397535372</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0405688554492235</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0141730235429192</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.566795983569147</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1858500.696</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5538802.192</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Tamaki - Hopelands</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_5d</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
+++ b/trend_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -127,55 +127,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -654,13 +651,13 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.441232841643137</v>
+        <v>0.558767158356863</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -669,22 +666,22 @@
         <v>10.03</v>
       </c>
       <c r="K2">
-        <v>-0.0057990235946602</v>
+        <v>0.0100103350596772</v>
       </c>
       <c r="L2">
         <v>-0.0429257841187048</v>
       </c>
       <c r="M2">
-        <v>0.0410538352111991</v>
+        <v>0.0510578731483417</v>
       </c>
       <c r="N2">
-        <v>-0.0578167855898328</v>
+        <v>0.0998039387804304</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2">
         <v>1858500.696</v>
@@ -693,19 +690,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,40 +719,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0.406848444030283</v>
+        <v>0.778908515445918</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.327586206896552</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.0002229853479853</v>
       </c>
       <c r="L3">
-        <v>-0.0005929383116882999</v>
+        <v>-0.0009154135338344999</v>
       </c>
       <c r="M3">
-        <v>0.0007488740600809</v>
+        <v>0.0002797763078551</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-1.59275248560963</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1858500.696</v>
@@ -764,19 +761,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,37 +793,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.979965847256593</v>
+        <v>0.994576781179846</v>
       </c>
       <c r="G4">
-        <v>0.0172413793103448</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H4">
-        <v>0.879310344827586</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K4">
-        <v>-23.4976348155156</v>
+        <v>-25.2593528476847</v>
       </c>
       <c r="L4">
-        <v>-49.2080353399124</v>
+        <v>-50.8097723111286</v>
       </c>
       <c r="M4">
-        <v>-4.830799070191</v>
+        <v>-9.78385427559278</v>
       </c>
       <c r="N4">
-        <v>-18.6489165202505</v>
+        <v>-22.1573270593725</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1858500.696</v>
@@ -835,19 +832,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,40 +861,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>0.7715159752032</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>0.9090909090909089</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="H5">
-        <v>0.127272727272727</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.005</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1858500.696</v>
@@ -906,19 +885,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>0.999855512854234</v>
+        <v>0.999894320587296</v>
       </c>
       <c r="G6">
-        <v>0.327586206896552</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="H6">
-        <v>0.137931034482759</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -953,22 +932,22 @@
         <v>0.002</v>
       </c>
       <c r="K6">
-        <v>-0.0005017170329669999</v>
+        <v>-0.0002931380417335</v>
       </c>
       <c r="L6">
-        <v>-0.0008027472527472</v>
+        <v>-0.0005671583850931</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-25.0858516483516</v>
+        <v>-14.6569020866774</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1858500.696</v>
@@ -977,19 +956,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,37 +988,37 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.0007621892914482</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.9985000000000001</v>
+        <v>0.9175</v>
       </c>
       <c r="K7">
-        <v>0.117583736954249</v>
+        <v>-0.0333309749461065</v>
       </c>
       <c r="L7">
-        <v>0.039128568267525</v>
+        <v>-0.111681710422865</v>
       </c>
       <c r="M7">
-        <v>0.170023160147528</v>
+        <v>0.033888415753448</v>
       </c>
       <c r="N7">
-        <v>11.7760377520529</v>
+        <v>-3.63280380883995</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1858500.696</v>
@@ -1048,19 +1027,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,7 +1059,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.328904668443325</v>
+        <v>0.735931853809664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1092,25 +1071,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.53</v>
+        <v>7.505</v>
       </c>
       <c r="K8">
-        <v>-0.008865291262135699</v>
+        <v>0.0141023166023169</v>
       </c>
       <c r="L8">
-        <v>-0.0466263605347442</v>
+        <v>-0.0214567324385042</v>
       </c>
       <c r="M8">
-        <v>0.0265373223034525</v>
+        <v>0.0512836228914989</v>
       </c>
       <c r="N8">
-        <v>-0.11773295168839</v>
+        <v>0.187905617619146</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1858500.696</v>
@@ -1119,16 +1098,16 @@
         <v>5538802.192</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,37 +1127,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0007621892914482</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.0055</v>
+        <v>0.924</v>
       </c>
       <c r="K9">
-        <v>0.115937937486132</v>
+        <v>-0.040083905006284</v>
       </c>
       <c r="L9">
-        <v>0.0386500147651978</v>
+        <v>-0.118294691698288</v>
       </c>
       <c r="M9">
-        <v>0.167867067004718</v>
+        <v>0.0293402979092327</v>
       </c>
       <c r="N9">
-        <v>11.5303766768903</v>
+        <v>-4.33808495739005</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q9">
         <v>1858500.696</v>
@@ -1187,19 +1166,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
         <v>57</v>
-      </c>
-      <c r="W9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,37 +1198,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0007621892914482</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.896551724137931</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.065</v>
+        <v>1.025</v>
       </c>
       <c r="K10">
-        <v>0.124710340094565</v>
+        <v>-0.0247538496756471</v>
       </c>
       <c r="L10">
-        <v>0.046744367279224</v>
+        <v>-0.110162478641248</v>
       </c>
       <c r="M10">
-        <v>0.188546036686023</v>
+        <v>0.039814711785736</v>
       </c>
       <c r="N10">
-        <v>11.7098910886915</v>
+        <v>-2.41500972445338</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>1858500.696</v>
@@ -1258,19 +1237,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,43 +1263,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>0.401761076674001</v>
+        <v>0.204392632948095</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.431034482758621</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0004130330890509</v>
       </c>
       <c r="L11">
-        <v>-0.0007311521420853</v>
+        <v>-0.0003304622081971</v>
       </c>
       <c r="M11">
-        <v>0.001180102534909</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.96682423357582</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1858500.696</v>
@@ -1329,19 +1308,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,13 +1340,13 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0449824875182887</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.9655172413793101</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1376,22 +1355,22 @@
         <v>1.48</v>
       </c>
       <c r="K12">
-        <v>0.113373436333084</v>
+        <v>0.0423586807928913</v>
       </c>
       <c r="L12">
-        <v>0.0013286306643051</v>
+        <v>-0.0346731143436852</v>
       </c>
       <c r="M12">
-        <v>0.27562146521462</v>
+        <v>0.200803532138347</v>
       </c>
       <c r="N12">
-        <v>7.660367319803</v>
+        <v>2.86207302654671</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1858500.696</v>
@@ -1400,19 +1379,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,37 +1411,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0005461708781620001</v>
+        <v>9.04856899397455E-06</v>
       </c>
       <c r="G13">
-        <v>0.0441176470588235</v>
+        <v>0.0491803278688525</v>
       </c>
       <c r="H13">
-        <v>0.852941176470588</v>
+        <v>0.868852459016393</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>-0.194320197044335</v>
+        <v>-0.271483508738959</v>
       </c>
       <c r="L13">
-        <v>-0.300656375170539</v>
+        <v>-0.367869964937487</v>
       </c>
       <c r="M13">
-        <v>-0.08094204560694269</v>
+        <v>-0.153803916239832</v>
       </c>
       <c r="N13">
-        <v>-10.2273787918071</v>
+        <v>-15.0824171521644</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1858500.696</v>
@@ -1471,19 +1450,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,7 +1482,7 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.964210422022144</v>
+        <v>0.95477482687029</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1515,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.949999999999999</v>
+        <v>9.955</v>
       </c>
       <c r="K14">
-        <v>0.0197523371660578</v>
+        <v>0.0217593989914195</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.0402087210156314</v>
+        <v>0.0498807310930364</v>
       </c>
       <c r="N14">
-        <v>0.198515951417666</v>
+        <v>0.218577589064988</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
         <v>49</v>
@@ -1542,19 +1521,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,43 +1547,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0.645710601666273</v>
+        <v>0.880294358853863</v>
       </c>
       <c r="G15">
         <v>0.0254237288135593</v>
       </c>
       <c r="H15">
-        <v>0.211864406779661</v>
+        <v>0.194915254237288</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-0.0001348283499446</v>
       </c>
       <c r="L15">
-        <v>-0.0003334094020994</v>
+        <v>-0.0004010294049581</v>
       </c>
       <c r="M15">
-        <v>0.0002005371411115</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-0.898855666297528</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15">
         <v>1858500.696</v>
@@ -1613,19 +1592,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,37 +1624,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.997071414817896</v>
+        <v>0.9962901753694871</v>
       </c>
       <c r="G16">
-        <v>0.0169491525423729</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H16">
-        <v>0.711864406779661</v>
+        <v>0.726495726495726</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>160</v>
+        <v>132.4</v>
       </c>
       <c r="K16">
-        <v>-9.63151429003095</v>
+        <v>-9.27198549410698</v>
       </c>
       <c r="L16">
-        <v>-13.9688723773279</v>
+        <v>-15.318080532753</v>
       </c>
       <c r="M16">
-        <v>-4.45834377067141</v>
+        <v>-4.65431214520312</v>
       </c>
       <c r="N16">
-        <v>-6.01969643126934</v>
+        <v>-7.0030101919237</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1858500.696</v>
@@ -1684,19 +1663,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>0.100498726444473</v>
+        <v>0.305629963432872</v>
       </c>
       <c r="G17">
         <v>0.947826086956522</v>
@@ -1743,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1858500.696</v>
@@ -1755,19 +1734,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0.9999883511448741</v>
+        <v>0.999999954485845</v>
       </c>
       <c r="G18">
-        <v>0.220338983050847</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="H18">
         <v>0.101694915254237</v>
@@ -1799,25 +1778,25 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="K18">
-        <v>-0.0002449698189134</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="L18">
-        <v>-0.0003515463747084</v>
+        <v>-0.000417417152378</v>
       </c>
       <c r="M18">
-        <v>-0.0001329097935374</v>
+        <v>-0.0001843765774861</v>
       </c>
       <c r="N18">
-        <v>-8.165660630449359</v>
+        <v>-11.9950738916256</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1858500.696</v>
@@ -1826,19 +1805,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,37 +1837,37 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.624461903019073</v>
+        <v>0.992492661694684</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.025</v>
+        <v>0.972</v>
       </c>
       <c r="K19">
-        <v>-0.003904032708974</v>
+        <v>-0.0288714519588248</v>
       </c>
       <c r="L19">
-        <v>-0.02445049400736</v>
+        <v>-0.0481945762228763</v>
       </c>
       <c r="M19">
-        <v>0.021762506245465</v>
+        <v>-0.0098727040383984</v>
       </c>
       <c r="N19">
-        <v>-0.380881239899903</v>
+        <v>-2.97031398753342</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <v>1858500.696</v>
@@ -1897,19 +1876,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,37 +1908,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.852453618422372</v>
+        <v>0.865456881889907</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.542372881355932</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.5</v>
+        <v>7.505</v>
       </c>
       <c r="K20">
-        <v>0.0068958464443046</v>
+        <v>0.0072136273864382</v>
       </c>
       <c r="L20">
-        <v>-0.0037666924894564</v>
+        <v>-0.0035736934604942</v>
       </c>
       <c r="M20">
-        <v>0.0185463057858144</v>
+        <v>0.019714491565026</v>
       </c>
       <c r="N20">
-        <v>0.0919446192573953</v>
+        <v>0.0961176200724623</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1858500.696</v>
@@ -1968,16 +1947,16 @@
         <v>5538802.192</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,7 +1976,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.552522460519809</v>
+        <v>0.987603983822991</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2009,25 +1988,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.036</v>
+        <v>0.9712499999999999</v>
       </c>
       <c r="K21">
-        <v>-0.0024661806552932</v>
+        <v>-0.0287254359830848</v>
       </c>
       <c r="L21">
-        <v>-0.0254770897579687</v>
+        <v>-0.0475123612704734</v>
       </c>
       <c r="M21">
-        <v>0.0219690758412199</v>
+        <v>-0.0104841849541674</v>
       </c>
       <c r="N21">
-        <v>-0.238048325800503</v>
+        <v>-2.95757384639226</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1858500.696</v>
@@ -2036,19 +2015,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
         <v>57</v>
-      </c>
-      <c r="W21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,34 +2047,34 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.848806361196585</v>
+        <v>0.9989247188531279</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.8050847457627121</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.145</v>
+        <v>1.07</v>
       </c>
       <c r="K22">
-        <v>-0.0124531906063861</v>
+        <v>-0.0344970149566933</v>
       </c>
       <c r="L22">
-        <v>-0.0324555707450444</v>
+        <v>-0.0517980126487445</v>
       </c>
       <c r="M22">
-        <v>0.0076525933051709</v>
+        <v>-0.014369634471099</v>
       </c>
       <c r="N22">
-        <v>-1.08761490012106</v>
+        <v>-3.22402008941059</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
@@ -2107,19 +2086,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2118,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.966378072420111</v>
+        <v>0.9354502581180441</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.296610169491525</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0225</v>
+        <v>0.022</v>
       </c>
       <c r="K23">
-        <v>-0.000332347588717</v>
+        <v>-0.0002608928571428</v>
       </c>
       <c r="L23">
-        <v>-0.0006313359559938</v>
+        <v>-0.0005379234167893</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>-1.47710039429785</v>
+        <v>-1.18587662337662</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1858500.696</v>
@@ -2178,19 +2157,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
         <v>57</v>
-      </c>
-      <c r="W23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,37 +2189,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.416256203527265</v>
+        <v>0.426571355665238</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.898305084745763</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.58</v>
+        <v>1.485</v>
       </c>
       <c r="K24">
-        <v>0.0057697458791208</v>
+        <v>0.0037568763473368</v>
       </c>
       <c r="L24">
-        <v>-0.0453033204469454</v>
+        <v>-0.0361141904430602</v>
       </c>
       <c r="M24">
-        <v>0.0543018266636854</v>
+        <v>0.0440131851601749</v>
       </c>
       <c r="N24">
-        <v>0.365173789817777</v>
+        <v>0.252988306217972</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1858500.696</v>
@@ -2249,19 +2228,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,37 +2260,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.08041089445470991</v>
+        <v>0.001235996489205</v>
       </c>
       <c r="G25">
-        <v>0.0701754385964912</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="H25">
-        <v>0.710526315789474</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="I25">
         <v>7</v>
       </c>
       <c r="J25">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="K25">
-        <v>-0.0475002796879428</v>
+        <v>-0.0984501347708896</v>
       </c>
       <c r="L25">
-        <v>-0.100330007791329</v>
+        <v>-0.165488209516216</v>
       </c>
       <c r="M25">
-        <v>0.00980275946064</v>
+        <v>-0.0497549432955956</v>
       </c>
       <c r="N25">
-        <v>-2.38694872803733</v>
+        <v>-4.97222902883281</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1858500.696</v>
@@ -2320,19 +2299,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,13 +2331,13 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.610982829882491</v>
+        <v>0.734474821570594</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.810650887573965</v>
+        <v>0.804733727810651</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2367,22 +2346,22 @@
         <v>9.960000000000001</v>
       </c>
       <c r="K26">
-        <v>0.0024965823650033</v>
+        <v>0.0066048824593127</v>
       </c>
       <c r="L26">
-        <v>-0.0163479885633979</v>
+        <v>-0.009985154524995</v>
       </c>
       <c r="M26">
-        <v>0.0157405651672182</v>
+        <v>0.0196900269541775</v>
       </c>
       <c r="N26">
-        <v>0.0250660880020418</v>
+        <v>0.06631408091679419</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1858500.696</v>
@@ -2391,19 +2370,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27">
-        <v>0.521556192605091</v>
+        <v>0.620500415931416</v>
       </c>
       <c r="G27">
         <v>0.0235294117647059</v>
@@ -2435,25 +2414,25 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-0.0001245413727831</v>
+        <v>-0.0001581168831168</v>
       </c>
       <c r="M27">
-        <v>0.0001151844843897</v>
+        <v>8.87390670553937E-05</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1858500.696</v>
@@ -2462,19 +2441,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,13 +2473,13 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.89308258194887</v>
+        <v>0.976653527463198</v>
       </c>
       <c r="G28">
-        <v>0.0117647058823529</v>
+        <v>0.0118343195266272</v>
       </c>
       <c r="H28">
-        <v>0.711764705882353</v>
+        <v>0.733727810650888</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2509,22 +2488,22 @@
         <v>160</v>
       </c>
       <c r="K28">
-        <v>-2.66585645338279</v>
+        <v>-4.01373626373626</v>
       </c>
       <c r="L28">
-        <v>-5.73614103870844</v>
+        <v>-7.79679802955665</v>
       </c>
       <c r="M28">
-        <v>0.739116471199887</v>
+        <v>-0.992180505587792</v>
       </c>
       <c r="N28">
-        <v>-1.66616028336425</v>
+        <v>-2.50858516483517</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1858500.696</v>
@@ -2533,19 +2512,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29">
-        <v>0.9843559195152169</v>
+        <v>0.998169296713238</v>
       </c>
       <c r="G29">
-        <v>0.885542168674699</v>
+        <v>0.8915662650602409</v>
       </c>
       <c r="H29">
-        <v>0.144578313253012</v>
+        <v>0.13855421686747</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -2592,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1858500.696</v>
@@ -2604,19 +2583,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,13 +2615,13 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>0.985257078196244</v>
+        <v>0.9997171299219469</v>
       </c>
       <c r="G30">
-        <v>0.26875</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="H30">
-        <v>0.08749999999999999</v>
+        <v>0.0823529411764706</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2651,22 +2630,22 @@
         <v>0.003</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>-0.0001046361726508</v>
       </c>
       <c r="L30">
-        <v>-0.0001410231660231</v>
+        <v>-0.0001723028204874</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-3.48787242169595</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1858500.696</v>
@@ -2675,19 +2654,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,37 +2686,37 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.645381625629282</v>
+        <v>0.987298668415024</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.91875</v>
+        <v>0.917647058823529</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.01035</v>
+        <v>0.9935</v>
       </c>
       <c r="K31">
-        <v>-0.0030846897522791</v>
+        <v>-0.0163512013007803</v>
       </c>
       <c r="L31">
-        <v>-0.0166357251156951</v>
+        <v>-0.0274210922864099</v>
       </c>
       <c r="M31">
-        <v>0.0109931182206095</v>
+        <v>-0.004823198217117</v>
       </c>
       <c r="N31">
-        <v>-0.305309026800527</v>
+        <v>-1.64581794673179</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1858500.696</v>
@@ -2746,19 +2725,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,40 +2754,40 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.9036590392268929</v>
+        <v>0.492405690225207</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.550295857988166</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7.5</v>
+        <v>7.51</v>
       </c>
       <c r="K32">
-        <v>0.0068468348203075</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.0015737805229696</v>
+        <v>-0.008192911278503801</v>
       </c>
       <c r="M32">
-        <v>0.0155401156987923</v>
+        <v>0.007774071475199</v>
       </c>
       <c r="N32">
-        <v>0.0912911309374341</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q32">
         <v>1858500.696</v>
@@ -2817,16 +2796,16 @@
         <v>5538802.192</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,7 +2825,7 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.8578383444295981</v>
+        <v>0.985660317635655</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2858,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.0285</v>
+        <v>0.98575</v>
       </c>
       <c r="K33">
-        <v>-0.0100295855933162</v>
+        <v>-0.0162687904699941</v>
       </c>
       <c r="L33">
-        <v>-0.0219757268259355</v>
+        <v>-0.028461346147298</v>
       </c>
       <c r="M33">
-        <v>0.0026150212955457</v>
+        <v>-0.0050010602508385</v>
       </c>
       <c r="N33">
-        <v>-0.975166319233465</v>
+        <v>-1.65039720720204</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1858500.696</v>
@@ -2885,19 +2864,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
         <v>57</v>
-      </c>
-      <c r="W33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,7 +2896,7 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.974812386321669</v>
+        <v>0.999578870241321</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2929,25 +2908,25 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.145</v>
+        <v>1.11</v>
       </c>
       <c r="K34">
-        <v>-0.0149846171360499</v>
+        <v>-0.0231811481896181</v>
       </c>
       <c r="L34">
-        <v>-0.026741492770186</v>
+        <v>-0.035712525324792</v>
       </c>
       <c r="M34">
-        <v>-0.0016784141768729</v>
+        <v>-0.0121079637548212</v>
       </c>
       <c r="N34">
-        <v>-1.30870018655458</v>
+        <v>-2.08839172879442</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1858500.696</v>
@@ -2956,19 +2935,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,7 +2967,7 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.975541305616114</v>
+        <v>0.908020864567073</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3000,25 +2979,25 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K35">
-        <v>-0.0001816487761594</v>
+        <v>-0.000142175943947</v>
       </c>
       <c r="L35">
-        <v>-0.0003334094020994</v>
+        <v>-0.0003215930613468</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-0.789777287649811</v>
+        <v>-0.64625429066846</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q35">
         <v>1858500.696</v>
@@ -3027,19 +3006,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
         <v>57</v>
-      </c>
-      <c r="W35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,37 +3038,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.785798673690035</v>
+        <v>0.880997062261614</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.870588235294118</v>
+        <v>0.858823529411765</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.65</v>
+        <v>1.565</v>
       </c>
       <c r="K36">
-        <v>-0.0107816966004353</v>
+        <v>-0.0164471285503634</v>
       </c>
       <c r="L36">
-        <v>-0.0440556782816162</v>
+        <v>-0.0486391565918689</v>
       </c>
       <c r="M36">
-        <v>0.009759301823957499</v>
+        <v>0.006393902495654</v>
       </c>
       <c r="N36">
-        <v>-0.653436157602137</v>
+        <v>-1.05093473165261</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q36">
         <v>1858500.696</v>
@@ -3098,19 +3077,19 @@
         <v>5538802.192</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
